--- a/Disc_golf_final.xlsx
+++ b/Disc_golf_final.xlsx
@@ -382,12 +382,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Disc Golf-Coed</t>
+          <t>Disc Golf</t>
         </is>
       </c>
     </row>
@@ -399,12 +399,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Disc Golf-Coed</t>
+          <t>Disc Golf</t>
         </is>
       </c>
     </row>
@@ -416,12 +416,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Disc Golf-Coed</t>
+          <t>Disc Golf</t>
         </is>
       </c>
     </row>
